--- a/PPnGa_aleph.xlsx
+++ b/PPnGa_aleph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaelg\PycharmProjects\Aleph_custom4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39CAC3-3E2D-4D7F-9192-BC08FAC1CD6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0261CED-ECC1-4E96-B6CA-02BB2C138BCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" xr2:uid="{BC69E5E5-770D-42F9-BC1E-313ED00C9308}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="712">
   <si>
     <t>PPnGa</t>
   </si>
@@ -645,9 +645,6 @@
     <t>סדרה</t>
   </si>
   <si>
-    <t>סימול/מספר מזהה</t>
-  </si>
-  <si>
     <t>PPnGa-ThAz-KoL-7</t>
   </si>
   <si>
@@ -1186,6 +1183,984 @@
   </si>
   <si>
     <t>PPnGa-ThPr-13-001</t>
+  </si>
+  <si>
+    <t>סימול</t>
+  </si>
+  <si>
+    <t>כותרת</t>
+  </si>
+  <si>
+    <t>אוסף פנינה גרי</t>
+  </si>
+  <si>
+    <t>תיאטרון "זוית"</t>
+  </si>
+  <si>
+    <t>"בדלתיים סגורות"</t>
+  </si>
+  <si>
+    <t>מחזות "בדלתיים סגורות"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות, הצגה, "בדלתיים סגורות"</t>
+  </si>
+  <si>
+    <t>תוכניית הצגה,"בדלתיים סגורות"</t>
+  </si>
+  <si>
+    <t>תוכניית הצגה חגיגית, "בדלתיים סגורות"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דף מידע, הצגה, "בדלתיים סגורות" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחזות </t>
+  </si>
+  <si>
+    <t>מחזה "ברכט על ברכט"</t>
+  </si>
+  <si>
+    <t>מחזה "בלב - ים"</t>
+  </si>
+  <si>
+    <t>סדרת תצלומים</t>
+  </si>
+  <si>
+    <t>תצלומי מתוך ההצגה "אפריון הכלולות.</t>
+  </si>
+  <si>
+    <t>תצלום מתוך ההצגה, "אהבה שכזאת.</t>
+  </si>
+  <si>
+    <t>תצלום מתוך ההצגה "בית במצב טוב.</t>
+  </si>
+  <si>
+    <t>תצלומים מתוך ההצגה "אי העיזים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סדרת קטעי עיתונות </t>
+  </si>
+  <si>
+    <t>אלבום קטעי עיתונות אודות תאטרון זוית, בעריכתה של פנינה גרי</t>
+  </si>
+  <si>
+    <t>מחברת קטעי עיתונות אודות תאטרון זוית. בעריכתה של פנינה גרי.</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות"הכרטסת"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "הבא נתגרש"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "אהבה שכזאת"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "איש פשוט ורעשן"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "פרח הקקטוס"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "אפריון הכלולות"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "ארץ רחוקה"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "שלוש קומדיות צרפתיות"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "נדוני אלטונה"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות תאטרון זוית</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות באנגלית "תאטרון זוית"</t>
+  </si>
+  <si>
+    <t>קטע עיתונות "טעם הדבש"</t>
+  </si>
+  <si>
+    <t>קטע עיתונות "ביבר הזכוכית"</t>
+  </si>
+  <si>
+    <t>תוכניות הצגה</t>
+  </si>
+  <si>
+    <t>תוכניית הצגה " אהבה שכזאת"</t>
+  </si>
+  <si>
+    <t>תוכניית הצגה "אהבה שכזאת"</t>
+  </si>
+  <si>
+    <t>תוכנית הצגה "איש פשוט ורעשן"</t>
+  </si>
+  <si>
+    <t>תוכניית הצגה "ביבר הזכוכית"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תוכנית הצגה "הכרטסת", </t>
+  </si>
+  <si>
+    <t>סדרה מידע מנהלי</t>
+  </si>
+  <si>
+    <t>מידע מנהלי: תקנוני תאטרון זוית. הסכם מנהלי תאטרון זוית</t>
+  </si>
+  <si>
+    <t>מידע מנהלי, דין וחשבון כספי, תאטרון זוית</t>
+  </si>
+  <si>
+    <t>מידע מנהלי. דו"ח הכנסות והוצאות, אפריל - יולי, 1962.תאטרון זוית</t>
+  </si>
+  <si>
+    <t>מכתב מאת רואה חשבון חיים ליברמן</t>
+  </si>
+  <si>
+    <t>דו"ח הכנסות והוצאות ליום 30.9.1967</t>
+  </si>
+  <si>
+    <t>סדרת מכתבים</t>
+  </si>
+  <si>
+    <t>מכתבים מנהליים / אינפורמטביים תאטרון זוית</t>
+  </si>
+  <si>
+    <t>מכתב לכבוד המדור "מכתבים למערכת", מערכת  עתון "ידיעות אחרונות"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מכתב תודה  בנושא הצגת "בדלתיים סגורות " מאת ניסים אלמוג, מאת נהל הלשכה להדרכה וכח-אדם אל אורה יריב . </t>
+  </si>
+  <si>
+    <t>סדרת חומר פרסומי</t>
+  </si>
+  <si>
+    <t>עלון פרסום אודות ההצגה "איש פשוט ורעשן"</t>
+  </si>
+  <si>
+    <t>התאטרון הערבי עברי ביפו</t>
+  </si>
+  <si>
+    <t>ההצגה "תמול שלשום"</t>
+  </si>
+  <si>
+    <t>מחזות "תמול שלשום"</t>
+  </si>
+  <si>
+    <t>3 מחזות "תמול שלשום"</t>
+  </si>
+  <si>
+    <t>תצלומים של ההצגה "תמול שלשום"</t>
+  </si>
+  <si>
+    <t>תמונות מתוך ההצגה "תמול שלשום" הסרוקות על גבי נייר</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות של ההצגה "תמול שלשום"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "תמול שלשום"</t>
+  </si>
+  <si>
+    <t>תוכניית הצגה "תמול שלשום"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מידע מנהלי </t>
+  </si>
+  <si>
+    <t>" תמול שלשום" מידע מנהלי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מכתבים </t>
+  </si>
+  <si>
+    <t>מכתבי תגובה מצופי ההצגה "תמול שלשום"</t>
+  </si>
+  <si>
+    <t>קטע פרי עטה של פנינה גרי על היצירה "תמול שלשום" .</t>
+  </si>
+  <si>
+    <t>מכתב תשובה עבור פנינה ממפעל הפיס</t>
+  </si>
+  <si>
+    <t>חומר פרסומי</t>
+  </si>
+  <si>
+    <t>חומר פרסומי "תמול שלשום"</t>
+  </si>
+  <si>
+    <t>וידאו</t>
+  </si>
+  <si>
+    <t>7 CD, קבצי אודיו "תמול שלשום"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "סדנת תאטרון הגליל"</t>
+  </si>
+  <si>
+    <t>ההצגה "שווים ושווים יותר"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "שווים ושווים יותר", עיתון הארץ וידיעות אחרונות</t>
+  </si>
+  <si>
+    <t>מחזות</t>
+  </si>
+  <si>
+    <t>"שווים ושווים יותר" מחזה</t>
+  </si>
+  <si>
+    <t>"מחזה" שווים ושווים יותר</t>
+  </si>
+  <si>
+    <t>דף בכתב יד למחזה "שווים ושווים יותר"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דף נלווה  בכתב יד למחזה "שווים ושווים יותר" </t>
+  </si>
+  <si>
+    <t>"הבימרתף"</t>
+  </si>
+  <si>
+    <t>המחזה "ניקול"</t>
+  </si>
+  <si>
+    <t>המחזה "מוסה והפרעונית"</t>
+  </si>
+  <si>
+    <t>המחזה "טעם הדבש"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> המחזה "דייר משנה"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תכניות </t>
+  </si>
+  <si>
+    <t>תכניית "מחזור אלכוהולי"</t>
+  </si>
+  <si>
+    <t>מכתב מהמדור להתישבות קיבוצית בהסתדרות על ההצגה "ערב צ'כוב"</t>
+  </si>
+  <si>
+    <t>מכתב מנאמנות התיאטרון הלאומי "הבימה" לפנינה גרי</t>
+  </si>
+  <si>
+    <t>מכתב משגריר ישראל בוושינגטון לפנינה גרי</t>
+  </si>
+  <si>
+    <t>טיוטת מכתב סדנת "הבימה"  בכתב יד</t>
+  </si>
+  <si>
+    <t>טיוטת מכתב סדנת "הבימה" במרתף, מודפס עם הערות בכתב יד</t>
+  </si>
+  <si>
+    <t>העתק מכתב סדנת "הבימה" במרתף</t>
+  </si>
+  <si>
+    <t>טיוטת מכתב הצעה לקפה תיאטרון במרתף הבימה</t>
+  </si>
+  <si>
+    <t>העתק מכתב הצעה לקפה תיאטרון במרתף הבימה</t>
+  </si>
+  <si>
+    <t>מכתב של פנינה גרי לחבר הנאמנים, המנהל האמנותי ומנכ"ל תיאטרון "הבימה" על המבקש הכרזה רשמית על יוזמתה להקים תיאטרון בתוך "הבימה"</t>
+  </si>
+  <si>
+    <t>הכרזה של חבר הנאמנים של תיאטרון "הבימה" על הקמת "הבימרתף"</t>
+  </si>
+  <si>
+    <t>מחברת ניהול רשימת הצגות + הכנסות + שני טקסטים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חומר פרסומי שיווקי </t>
+  </si>
+  <si>
+    <t>פוסטר ההצגה, "על קלות דעת וצביעות"</t>
+  </si>
+  <si>
+    <t>עלון פרסום "בוסמן ולנה" באנגלית, בהפקה לא ידועה בבימוי המחזאי</t>
+  </si>
+  <si>
+    <t>תצלומים</t>
+  </si>
+  <si>
+    <t>3 דפי קונטקט מההצגה "ליל מרצחים"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קטעי עיתונות </t>
+  </si>
+  <si>
+    <t>קטעי עיתונות "טעם הדבש". בעברית ואנגלית</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> קטעי עיתונות "שלכם באהבה - ערב צ'כוב"</t>
+  </si>
+  <si>
+    <t>מאמר על ההצגה "הירושה"</t>
+  </si>
+  <si>
+    <t>מאמר באנגלית "יום אחד לפני"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות: הצגה "ירמה"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> קטעי עיתונות "בוסמן ולנה", עברית ואנגלית</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> קטעי עיתונות "ניקול"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> קטעי עיתונות "על קלות-דעת וצביעות"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> קטעי עיתונות "ליל מרצחים". אחד בעברית ואחד באנגלית.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> קטעי עיתונות "הבימרתף". בעברית ואנגלית</t>
+  </si>
+  <si>
+    <t>תיאטרון לילך</t>
+  </si>
+  <si>
+    <t>ההצגה "שובי שבא הקטנה"</t>
+  </si>
+  <si>
+    <t>המחזה "שובי שבא הקטנה"</t>
+  </si>
+  <si>
+    <t>קטעי עתונות</t>
+  </si>
+  <si>
+    <t>5 קטעי עיתונות "שובי שבא הקטנה"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חטיבת תיאטרון עצמאי </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "סיפור אהבה ארץ ישראלי"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> מחזות </t>
+  </si>
+  <si>
+    <t>המחזה "סיפור אהבה ארץ ישראלי" בצרפתית</t>
+  </si>
+  <si>
+    <t>המחזה "סיפור אהבה ארץ ישראלי" באנגלית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחזה  "סיפור אהבה ארץ ישראלי" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיק הצגה  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיק הצגה  "סיפור אהבה ארץ ישראלי" </t>
+  </si>
+  <si>
+    <t>תצלום, ילדים משחקים בצעצועים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תצלומים של השחקנית עדי בילסקי בהצגה "סיפור אהבה ארץ ישראלי" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הדפס נייר של תצלום של השחקנית עדי בילסקי בהצגה "סיפור אהבה ארץ ישראלי" </t>
+  </si>
+  <si>
+    <t>3 הדפסי נייר של תצלומי השחקנית בהפקה הצרפתית של "סיפור אהבה ארץ ישראלי"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שיווק ופרסום  </t>
+  </si>
+  <si>
+    <t>עלון פרסום "סיפור אהבה ארץ ישראלי"</t>
+  </si>
+  <si>
+    <t>גלוית פרסום ההצגה  "סיפור אהבה ארץ ישראלי" בפריס</t>
+  </si>
+  <si>
+    <t>תכניית התיאטרון "New End Theatre" למרץ-יוני 2010</t>
+  </si>
+  <si>
+    <t>פרסום של ההצגה "סיפור אהבה ארץ ישראלי"</t>
+  </si>
+  <si>
+    <t>כותרת:"הקשר הנהללי" והיהודי... טקסט אינפורמטיבי בפורמט של מכתב . מאת פנינה גרי אודות ההצגה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כותרת:"סיפור אהבה א"י למה, פתאום, עכשיו?.."  מידע בפורמט של מכתב. מאת פנינה גרי אודות ההצגה </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "סיפור אהבה ארץ ישראלי" דפים אנפורמטיביים באנגלית: מועד ההצגה, משתתפים וכו'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "סיפור אהבה ארץ ישראלי" דפים אנפורמטיביים: מועד ההצגה, משתתפים וכו'</t>
+  </si>
+  <si>
+    <t>מסמך באנגלית המציג את ההצגה "סיפור אהבה ארץ ישראלי" לקראת הפיכתה לסרט</t>
+  </si>
+  <si>
+    <t>תיק קטעי עיתונות "סיפור אהבה ארץ ישראלי"</t>
+  </si>
+  <si>
+    <t>כתבה מקוונת מודפסת על פרס "קיפוד הזהב" 2009</t>
+  </si>
+  <si>
+    <t>כתבה על זכייתה של ההצגה "סיפור אהבה ארץ ישראלי" בפרס היצירה הציונית</t>
+  </si>
+  <si>
+    <t>מכתב מפנינה גרי לקהל הצרפתי שיצפה בגרסה הצרפתית של ההצגה "סיפור אהבה ארץ ישראלי"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מכתב בקשת תמיכה מקרנות מפנינה גרי ועדי בילסקי </t>
+  </si>
+  <si>
+    <t>מכתבי תודה/תגובה מאת אירגונים / גופים ציבוריים.</t>
+  </si>
+  <si>
+    <t>מכתב תודה לעדי בילסקי מעיריית רעננה + שלוש תמונות</t>
+  </si>
+  <si>
+    <t>תיק מכתבים אישיים שנשלחו לפנינה גרי ונוגעים להצגה "סיפור אהבה ארץ ישראלי". מכיל 24 פריטים</t>
+  </si>
+  <si>
+    <t>מכתב מפנינה גרי למועצה להנצחת ראשי ממשלה ונשיאים, בנוגע למועמדות לפרס</t>
+  </si>
+  <si>
+    <t>מכתב ממנהלת תיאטרון גבעתיים לפרס יגאל אלון, המבקש להציע לפרס את ההצגה "סיפור אהבה ארץ ישראלי"</t>
+  </si>
+  <si>
+    <t>משוב להופעה של ההצגה "סיפור אהבה ארץ ישראלי" בפני חיילים</t>
+  </si>
+  <si>
+    <t>הסכם בין "חני העמותה לקידום תיאטרון מובחר" לבמאית ולמחזאית פנינה גרי</t>
+  </si>
+  <si>
+    <t>תכניות הצגה</t>
+  </si>
+  <si>
+    <t>תכניה באנגלית של ההצגה "סיפור אהבה ארץ ישראלי"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פרסים ותעודות </t>
+  </si>
+  <si>
+    <t>הודעה על זכייתה של ההצגה "סיפור אהבה ארץ ישראלי" בפרס היצירה הציונית</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> מידע נלווה </t>
+  </si>
+  <si>
+    <t>מכיל 6 פריטים בהקשרו של עמרם בן צבי. בינהם: הזמנה לסיור בעקבות ההצגה "סיפור אהבה ארץ ישראלי" באוניברסיטה הפתוחה וקטעי עיתונות.</t>
+  </si>
+  <si>
+    <t>אודיו של ההצגה "סיפור אהבה ארץ ישראלי"</t>
+  </si>
+  <si>
+    <t>CD של ההצגה "סיפור אהבה ארץ ישראלי" בעיר לידס</t>
+  </si>
+  <si>
+    <t>"קולונימוס ונעמי"</t>
+  </si>
+  <si>
+    <t>מחזה עם הערות בכתב-יד</t>
+  </si>
+  <si>
+    <t>מחזה מודפס</t>
+  </si>
+  <si>
+    <t>מחזה מודפס עם הערות בכתב-יד</t>
+  </si>
+  <si>
+    <t>"פנתר במרתף"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחזות  </t>
+  </si>
+  <si>
+    <t>המחזה "פנתר במרתף" בעיבוד פנינה גרי</t>
+  </si>
+  <si>
+    <t>המחזה "פנתר במרתף" מעובד בידי פנינה גרי וחנוך רעים</t>
+  </si>
+  <si>
+    <t>"אותו ספסל. אותה גינה..."</t>
+  </si>
+  <si>
+    <t>תיק המכיל 2 עיבודים למחזה של אלכסנדר גלמן "אותו ספסל. אותה גינה..."</t>
+  </si>
+  <si>
+    <t>"מיי פירסט סוני"</t>
+  </si>
+  <si>
+    <t>עיבוד שלא עלה לספר של בני ברבש "מיי פירסט סוני"</t>
+  </si>
+  <si>
+    <t>"יליד הארץ"</t>
+  </si>
+  <si>
+    <t>מחזה, עיבוד לספר של ריצ'ארד רייט "יליד הארץ"</t>
+  </si>
+  <si>
+    <t>"מצבה"</t>
+  </si>
+  <si>
+    <t>"מצבה" סיפור מאת דוד שמעוני (שמעונוביץ)</t>
+  </si>
+  <si>
+    <t>"מצבה" עיבוד בכתב יד מאת פנינה גרי לסיפורו של דוד שמעוני (שמעונוביץ)</t>
+  </si>
+  <si>
+    <t>חומרי שיווק</t>
+  </si>
+  <si>
+    <t>תיק המכיל 3 פריטים בכתב יד הנוגעים להעלאת עיבוד למחזה "המצבה"</t>
+  </si>
+  <si>
+    <t>"קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>שירים של יהודה עמיחי שמעובדים לכדי המחזה "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>פוסטר של ההצגה "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>חומר פרסומי שיווקי "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>עלון פרסום  "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>תיק הצגה</t>
+  </si>
+  <si>
+    <t>תיק הצגה  "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>קטעי עיתונות וביקורת "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קיואים של ההצגה </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> רשימות קיואים של ההצגה "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>מכתבים</t>
+  </si>
+  <si>
+    <t>מכתב מפרופסור נורית גוברין</t>
+  </si>
+  <si>
+    <t>מכתב ממנהלת "יד לבנים" רעננה</t>
+  </si>
+  <si>
+    <t>אודיו</t>
+  </si>
+  <si>
+    <t>אודיו של ההצגה "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>מוזיקת ליווי מהצגה "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הודעת הפתיחה של ההצגה "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>וידאו של ההצגה "קוראים לי יודה"</t>
+  </si>
+  <si>
+    <t>סוגרים את הים"</t>
+  </si>
+  <si>
+    <t>"סוגרים את הים". כותרת משנה: מחזה לשחקנית וקולות. מאת פנינה גרי.</t>
+  </si>
+  <si>
+    <t>"הנשים של בשביס זינגר"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD של ההצגה "הנשים של בשביס זינגר" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מעטפת ה-CD של ההצגה "הנשים של בשביס זינגר" + הערות בימוי </t>
+  </si>
+  <si>
+    <t>"הנשים של בשביס זינגר". טקסטים "הנער", "הסוד", "כתב היד", "לארץ ישראל</t>
+  </si>
+  <si>
+    <t>"הנשים של בשביס". טקסטים: "האמת המרה"</t>
+  </si>
+  <si>
+    <t>"הנשים של בשביס זינגר". טקסטים: "ינטל בחור ישיבה"</t>
+  </si>
+  <si>
+    <t>"הנשים של בשביס זינגר". טקסטים: "המפתח"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "הנשים של בשביס זינגר". טקסטים:"הקורבן"</t>
+  </si>
+  <si>
+    <t>"הנשים של בשביס זינגר". טקסטים:"בתחפושת"</t>
+  </si>
+  <si>
+    <t>"הנשים של בשביס זינגר" . טקסטים:"התיק"</t>
+  </si>
+  <si>
+    <t>מכתב פואטי מישראל זמיר, על ההצגה "הנשים של בשביס זינגר"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קיואים </t>
+  </si>
+  <si>
+    <t>רשימת קיואים להפעלת סאונד בהצגה "הנשים של בשביס זינגר"</t>
+  </si>
+  <si>
+    <t>רשימת כניסות ויציאות של שחקנים בהצגה "הנשים של בשביס זינגר"</t>
+  </si>
+  <si>
+    <t>חומר פרסומי - שיווקי</t>
+  </si>
+  <si>
+    <t>תיק המכיל 6 פריטים הקשורים לשיווק ההצגה "הנשים של בשביס זינגר"</t>
+  </si>
+  <si>
+    <t>טקסטים ללא ידוע באוסף</t>
+  </si>
+  <si>
+    <t>"Always together"</t>
+  </si>
+  <si>
+    <t>שם מחזה לא כתוב</t>
+  </si>
+  <si>
+    <t>"הטיול"</t>
+  </si>
+  <si>
+    <t>"פגישה בחמש אחר הצהריים (שם זמני)"</t>
+  </si>
+  <si>
+    <t>"פקניק בשדה הקרב"</t>
+  </si>
+  <si>
+    <t>"בעל ואישה"</t>
+  </si>
+  <si>
+    <t>"Cyanide at five O'clock"</t>
+  </si>
+  <si>
+    <t>"פלומרו"</t>
+  </si>
+  <si>
+    <t>"פגישה בסופר"</t>
+  </si>
+  <si>
+    <t>"בידרמן והמבעירים"</t>
+  </si>
+  <si>
+    <t>"Untitled"</t>
+  </si>
+  <si>
+    <t>"Going to St. Ives"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיאטרון "בימת באר-שבע" </t>
+  </si>
+  <si>
+    <t>הצגה "מתי תתחתן עם אשתי"</t>
+  </si>
+  <si>
+    <t>תיק ההצגה "מתי תתחתן עם אשתי"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיאטרון הנגב </t>
+  </si>
+  <si>
+    <t>"מנוחה נכונה"</t>
+  </si>
+  <si>
+    <t>תיק הצגה "מנוחה נכונה"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> מחזה של "מנוחה נכונה", מלאה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "מנוחה נכונה" מספר קטעי טקסט. עיבוד פנינה גרי</t>
+  </si>
+  <si>
+    <t>תיק המכיל גרסה אחרונה של המחזה "מנוחה נכונה" בעיבוד פנינה גרי</t>
+  </si>
+  <si>
+    <t>שיווק</t>
+  </si>
+  <si>
+    <t>גלוית שנה טובה של תיאטרון הנגב, עם פירוט הצגות התיאטרון</t>
+  </si>
+  <si>
+    <t>תיארטון הקאמרי</t>
+  </si>
+  <si>
+    <t>ההצגה "מקום אחר"</t>
+  </si>
+  <si>
+    <t>תיק קטעי עיתונות: 3 ביקורת והודעה קצרה</t>
+  </si>
+  <si>
+    <t>DVD של "מקום אחר"</t>
+  </si>
+  <si>
+    <t>ידיעונים של תיאטרון "הקאמרי" ותיאטרון ירושלים</t>
+  </si>
+  <si>
+    <t>"מנוחה נכונה" טקסט מודפס עם הערות בכתב-יד</t>
+  </si>
+  <si>
+    <t>טיוטה מודפסת עם הערות בכתב-יד, מכונה "גרסה שנייה"</t>
+  </si>
+  <si>
+    <t>עיבוד בכתב-יד, למחזה "מקום אחר". בימוי חנן שניר</t>
+  </si>
+  <si>
+    <t>ההצגה "תרה"</t>
+  </si>
+  <si>
+    <t>עלון פרסום "תרה". תאטרון הקאמרי.</t>
+  </si>
+  <si>
+    <t>תכניית ההצגה "תרה". תאטרון הקאמרי.</t>
+  </si>
+  <si>
+    <t>מחזה</t>
+  </si>
+  <si>
+    <t>מחזה "תרה"</t>
+  </si>
+  <si>
+    <t>בקורות תיאטרון על ההצגה "תרה"</t>
+  </si>
+  <si>
+    <t>תיאטרון אורנה פורת</t>
+  </si>
+  <si>
+    <t>תיק המכיל 22 קטעי עיתונות, תיאטרון אורנה פורת</t>
+  </si>
+  <si>
+    <t>מכתב מהמחזאי עוזי בן-כנען, לעורך עיתון העיר, הנוגע לכתבה על עבודתו עם תיאטרון אורנה פורת</t>
+  </si>
+  <si>
+    <t>מנהלה</t>
+  </si>
+  <si>
+    <t>מסמך "זכרון דברים" ריק של תיאטרון אורנה פורת לבין תאורן</t>
+  </si>
+  <si>
+    <t>מסמך הסכם ריק בין תיאטרון אורנה פורת למלחינים</t>
+  </si>
+  <si>
+    <t>מכתב ההתפטרות של פנינה גרי מתיאטרון אורנה פורת</t>
+  </si>
+  <si>
+    <t>סיכום ביקור שני פסטיבלי ילדים בחו"ל</t>
+  </si>
+  <si>
+    <t>מכתב המופנה למנהלי תיאטראות שונים, ומציין את עלויות הזמנת הצגה מהתיאטרון לילדים ולנוער</t>
+  </si>
+  <si>
+    <t>סיכום פגישה בין איגוד המחזאים בישראל לתיאטרונים ציבוריים</t>
+  </si>
+  <si>
+    <t>מסמך "הסכם" ריק של תיאטרון אורנה פורת לבין צייר (כלומר, מעצב תפאורה)</t>
+  </si>
+  <si>
+    <t>"שניים על גג בודד"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וידאו </t>
+  </si>
+  <si>
+    <t>תיק המכיל 4 DVD של ההצגה "שניים על גג בודד"</t>
+  </si>
+  <si>
+    <t>4 DVD של ההצגה "שניים על גג בודד"</t>
+  </si>
+  <si>
+    <t>"שרה גיבורת ניל"י"</t>
+  </si>
+  <si>
+    <t>ידיעה עיתונאית על בכורת ההצגה "שרה גיבורת ניל"י"</t>
+  </si>
+  <si>
+    <t>"המכשפה"</t>
+  </si>
+  <si>
+    <t>ידיעה המזכירה את ההצגה "המכשפה"</t>
+  </si>
+  <si>
+    <t>"תיאודור הרצל - קברט"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תווים </t>
+  </si>
+  <si>
+    <t>תיק תווים של שירים מההצגה "תיאודור הרצל - קברט"</t>
+  </si>
+  <si>
+    <t>המחזה "תיאודור הרצל - קברט"</t>
+  </si>
+  <si>
+    <t>תקציר סצנות באנגלית של המחזה "תיאודור הרצל - קברט"</t>
+  </si>
+  <si>
+    <t>עלון פרסום "תיאודור הרצל - קברט"</t>
+  </si>
+  <si>
+    <t>"אנה פרנק"</t>
+  </si>
+  <si>
+    <t>המחזה "אנה פרנק" של מאיר לוין באנגלית, בעיבודם של בתיה לנצט ופיטר פריי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המחזה "אנה פרנק". </t>
+  </si>
+  <si>
+    <t>תיק המכיל 5 קטעי עיתונות אודות ההצגה "אנה פרנק", אחד מהם באנגלית</t>
+  </si>
+  <si>
+    <t>"גיא אוני"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיק המכיל מסמכי מידע אודות ההצגה "גיא אוני". </t>
+  </si>
+  <si>
+    <t>מסמך המיועד לצופים בהצגה "גיא אוני".</t>
+  </si>
+  <si>
+    <t>מידע אודות ההצגה "גיא אוני".</t>
+  </si>
+  <si>
+    <t>תיק המכיל 3 הזמנות להצגות שונות של "גיא אוני"</t>
+  </si>
+  <si>
+    <t>הזמנה להצגה חגיגית של "גיא אוני" במרכז סוזן דלל</t>
+  </si>
+  <si>
+    <t>הזמנה להצגה של "גיא אוני" בראש פינה, לכבוד 115 שנים לראש פינה ו-100 שנות ציונות הכולל תיקון מועד בכתב יד.</t>
+  </si>
+  <si>
+    <t>הזמנה להצגה של "גיא אוני" בנתניה, לכבוד 50 שנים למדינת ישראל ו-100 שנות ציונות</t>
+  </si>
+  <si>
+    <t>3 קטעי עיתונות הקשורים בהצגה "גיא אוני"</t>
+  </si>
+  <si>
+    <t>"גיא אוני", מחזה עליו כתוב "טיוטה ראשונה".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> מחזה "גיא אוני" עליו חתומים פנינה גרי ומשה שטרנפלד, המצויין גם כבמאי וכמעצב העתידי</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> מחזה "גיא אוני", גרסה אחרונה לנובמבר 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> מחזה "גיא אוני", גרסה אחרונה נכון לראשון באפריל 1997</t>
+  </si>
+  <si>
+    <t>מחזה "גיא אוני", מודפס, גזור ומודבק בחלקו</t>
+  </si>
+  <si>
+    <t>תיק המכיל 2 תכניות של ההצגה "גיא אוני", אחת עם תיקונים של שמות השחקנים בכתב יד</t>
+  </si>
+  <si>
+    <t>חומרים פרטיים</t>
+  </si>
+  <si>
+    <t>מחזות \כתבי יד</t>
+  </si>
+  <si>
+    <t>מחברת</t>
+  </si>
+  <si>
+    <t>מחברת: "לארץ השיר". מחרוזת משירי ביאליק.</t>
+  </si>
+  <si>
+    <t>מחברת בכתב ידה, מתקופת לימודיה (לי שטרסברג) ובתוכה קטעי שירה, מודפסים/ מהעיתונות</t>
+  </si>
+  <si>
+    <t>טקסטים בכתב ידה של פנינה</t>
+  </si>
+  <si>
+    <t>שני תצלומים תיעוד הצגה</t>
+  </si>
+  <si>
+    <t>חמישה תצלומים, תיעוד הצגה</t>
+  </si>
+  <si>
+    <t>שני תצלומים, תיעוד הצגה</t>
+  </si>
+  <si>
+    <t>ארבעה תצלומים, תיעוד הצגה</t>
+  </si>
+  <si>
+    <t>תצלום פנינה גרי</t>
+  </si>
+  <si>
+    <t>תצלומי פנים וגוף, פנינה גרי</t>
+  </si>
+  <si>
+    <t>תצלומי פנים \ גוף מתוך הפקות שונות</t>
+  </si>
+  <si>
+    <t>אלבום תמונות</t>
+  </si>
+  <si>
+    <t>תוכניית ההצגה "בת שלמה"  של התיאטרון העברי לילדים</t>
+  </si>
+  <si>
+    <t>מידע מנהלי</t>
+  </si>
+  <si>
+    <t>דפי מידע מנהליים</t>
+  </si>
+  <si>
+    <t>מכתבים אישיים עבור פנינה</t>
+  </si>
+  <si>
+    <t>התכתבות אישית בין פנינה גרי ועמוס עוז</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שלושה מכתבים. שניים הנם בקשה לעיבוד מחזה/תסריט. מכתב שלישי:אישור קבלה לאולפן הדרמה "בראשית" </t>
+  </si>
+  <si>
+    <t>שלושה מכתבים עבור הנהלת פרס רוזנבלום, מכתבי המלצה אודות פנינה גרי כמועמדת לקבלת פרס "מפעל חיים".</t>
+  </si>
+  <si>
+    <t>חומרים אישיים</t>
+  </si>
+  <si>
+    <t>קורות חיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שתי תעודות - אסמכתאות על חברות בתיאטרון זוית. האחת בעברית השנייה באנגלית </t>
+  </si>
+  <si>
+    <t>עיצוב</t>
+  </si>
+  <si>
+    <t>שרטוטי תפאורה</t>
+  </si>
+  <si>
+    <t>פרסים ותעודות</t>
+  </si>
+  <si>
+    <t>פרס שרת התרבות והספורט ליצירה בתחום הציונות</t>
   </si>
 </sst>
 </file>
@@ -1564,3052 +2539,4192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53206059-6F3F-4432-A454-7AD0895D055F}">
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:C380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="s">
+        <v>205</v>
+      </c>
+      <c r="C201" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B201" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="B202" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B202" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="B203" t="s">
+        <v>203</v>
+      </c>
+      <c r="C203" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B203" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="B204" t="s">
+        <v>203</v>
+      </c>
+      <c r="C204" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B205" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="B206" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B206" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="B207" t="s">
+        <v>205</v>
+      </c>
+      <c r="C207" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B207" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="B208" t="s">
+        <v>203</v>
+      </c>
+      <c r="C208" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B208" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="B209" t="s">
+        <v>205</v>
+      </c>
+      <c r="C209" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B209" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="B210" t="s">
+        <v>203</v>
+      </c>
+      <c r="C210" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B210" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="B211" t="s">
+        <v>205</v>
+      </c>
+      <c r="C211" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B211" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="B212" t="s">
+        <v>204</v>
+      </c>
+      <c r="C212" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B212" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="B213" t="s">
+        <v>204</v>
+      </c>
+      <c r="C213" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B213" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="B214" t="s">
+        <v>205</v>
+      </c>
+      <c r="C214" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B214" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="B215" t="s">
+        <v>204</v>
+      </c>
+      <c r="C215" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B215" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="B216" t="s">
+        <v>204</v>
+      </c>
+      <c r="C216" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B216" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="B217" t="s">
+        <v>204</v>
+      </c>
+      <c r="C217" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B217" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="B218" t="s">
+        <v>205</v>
+      </c>
+      <c r="C218" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B218" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="B219" t="s">
+        <v>204</v>
+      </c>
+      <c r="C219" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B219" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="B220" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" t="s">
+        <v>205</v>
+      </c>
+      <c r="C221" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B221" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="B222" t="s">
+        <v>204</v>
+      </c>
+      <c r="C222" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B222" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="B223" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" t="s">
+        <v>205</v>
+      </c>
+      <c r="C224" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B224" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="B225" t="s">
+        <v>204</v>
+      </c>
+      <c r="C225" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B225" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="B226" t="s">
+        <v>204</v>
+      </c>
+      <c r="C226" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B226" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="B227" t="s">
+        <v>205</v>
+      </c>
+      <c r="C227" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B227" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="B228" t="s">
+        <v>203</v>
+      </c>
+      <c r="C228" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B228" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="B229" t="s">
+        <v>203</v>
+      </c>
+      <c r="C229" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B229" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="B230" t="s">
+        <v>203</v>
+      </c>
+      <c r="C230" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B230" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="B231" t="s">
+        <v>203</v>
+      </c>
+      <c r="C231" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B231" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="B232" t="s">
+        <v>203</v>
+      </c>
+      <c r="C232" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B232" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="B233" t="s">
+        <v>203</v>
+      </c>
+      <c r="C233" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B233" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="B234" t="s">
+        <v>203</v>
+      </c>
+      <c r="C234" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B234" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="B235" t="s">
+        <v>205</v>
+      </c>
+      <c r="C235" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B235" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="B236" t="s">
+        <v>204</v>
+      </c>
+      <c r="C236" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B236" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="B237" t="s">
+        <v>205</v>
+      </c>
+      <c r="C237" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B237" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="B238" t="s">
+        <v>204</v>
+      </c>
+      <c r="C238" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B238" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="B239" t="s">
+        <v>204</v>
+      </c>
+      <c r="C239" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B239" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="B240" t="s">
+        <v>205</v>
+      </c>
+      <c r="C240" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B240" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="B241" t="s">
+        <v>203</v>
+      </c>
+      <c r="C241" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B241" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="B242" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243" t="s">
+        <v>205</v>
+      </c>
+      <c r="C243" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B243" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="B244" t="s">
+        <v>204</v>
+      </c>
+      <c r="C244" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B244" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="B245" t="s">
+        <v>204</v>
+      </c>
+      <c r="C245" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B245" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="B246" t="s">
+        <v>204</v>
+      </c>
+      <c r="C246" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B246" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="B247" t="s">
+        <v>204</v>
+      </c>
+      <c r="C247" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B247" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="B248" t="s">
+        <v>204</v>
+      </c>
+      <c r="C248" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B248" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="B249" t="s">
+        <v>204</v>
+      </c>
+      <c r="C249" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B249" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="B250" t="s">
+        <v>204</v>
+      </c>
+      <c r="C250" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B250" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="B251" t="s">
+        <v>204</v>
+      </c>
+      <c r="C251" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B251" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+      <c r="B252" t="s">
+        <v>204</v>
+      </c>
+      <c r="C252" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B252" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="B253" t="s">
+        <v>204</v>
+      </c>
+      <c r="C253" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B253" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="B254" t="s">
+        <v>204</v>
+      </c>
+      <c r="C254" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B254" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+      <c r="B255" t="s">
+        <v>204</v>
+      </c>
+      <c r="C255" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B255" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="B256" t="s">
+        <v>204</v>
+      </c>
+      <c r="C256" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B256" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="B257" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C257" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B258" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259" t="s">
+        <v>205</v>
+      </c>
+      <c r="C259" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B259" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="B260" t="s">
+        <v>203</v>
+      </c>
+      <c r="C260" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B260" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="B261" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C261" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B262" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263" t="s">
+        <v>205</v>
+      </c>
+      <c r="C263" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B263" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+      <c r="B264" t="s">
+        <v>203</v>
+      </c>
+      <c r="C264" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B264" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+      <c r="B265" t="s">
+        <v>205</v>
+      </c>
+      <c r="C265" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B265" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+      <c r="B266" t="s">
+        <v>204</v>
+      </c>
+      <c r="C266" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B266" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+      <c r="B267" t="s">
+        <v>203</v>
+      </c>
+      <c r="C267" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B267" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+      <c r="B268" t="s">
+        <v>203</v>
+      </c>
+      <c r="C268" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B268" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+      <c r="B269" t="s">
+        <v>205</v>
+      </c>
+      <c r="C269" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B269" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+      <c r="B270" t="s">
+        <v>204</v>
+      </c>
+      <c r="C270" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B270" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="B271" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B272" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" t="s">
+        <v>205</v>
+      </c>
+      <c r="C273" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B273" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="B274" t="s">
+        <v>203</v>
+      </c>
+      <c r="C274" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B274" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+      <c r="B275" t="s">
+        <v>205</v>
+      </c>
+      <c r="C275" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B275" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+      <c r="B276" t="s">
+        <v>204</v>
+      </c>
+      <c r="C276" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B276" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="B277" t="s">
+        <v>205</v>
+      </c>
+      <c r="C277" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B277" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="B278" t="s">
+        <v>203</v>
+      </c>
+      <c r="C278" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B278" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+      <c r="B279" t="s">
+        <v>205</v>
+      </c>
+      <c r="C279" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B279" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+      <c r="B280" t="s">
+        <v>204</v>
+      </c>
+      <c r="C280" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B280" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+      <c r="B281" t="s">
+        <v>204</v>
+      </c>
+      <c r="C281" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B281" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+      <c r="B282" t="s">
+        <v>204</v>
+      </c>
+      <c r="C282" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B282" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="B283" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B284" t="s">
+        <v>205</v>
+      </c>
+      <c r="C284" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B284" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+      <c r="B285" t="s">
+        <v>204</v>
+      </c>
+      <c r="C285" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B285" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+      <c r="B286" t="s">
+        <v>205</v>
+      </c>
+      <c r="C286" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B286" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+      <c r="B287" t="s">
+        <v>204</v>
+      </c>
+      <c r="C287" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B287" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+      <c r="B288" t="s">
+        <v>205</v>
+      </c>
+      <c r="C288" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B288" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+      <c r="B289" t="s">
+        <v>204</v>
+      </c>
+      <c r="C289" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B289" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+      <c r="B290" t="s">
+        <v>205</v>
+      </c>
+      <c r="C290" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B290" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+      <c r="B291" t="s">
+        <v>203</v>
+      </c>
+      <c r="C291" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B291" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="B292" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B293" t="s">
+        <v>205</v>
+      </c>
+      <c r="C293" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B293" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+      <c r="B294" t="s">
+        <v>203</v>
+      </c>
+      <c r="C294" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B294" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+      <c r="B295" t="s">
+        <v>205</v>
+      </c>
+      <c r="C295" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B295" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+      <c r="B296" t="s">
+        <v>204</v>
+      </c>
+      <c r="C296" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B296" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+      <c r="B297" t="s">
+        <v>205</v>
+      </c>
+      <c r="C297" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B297" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+      <c r="B298" t="s">
+        <v>204</v>
+      </c>
+      <c r="C298" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B298" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+      <c r="B299" t="s">
+        <v>204</v>
+      </c>
+      <c r="C299" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B299" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+      <c r="B300" t="s">
+        <v>204</v>
+      </c>
+      <c r="C300" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B300" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+      <c r="B301" t="s">
+        <v>204</v>
+      </c>
+      <c r="C301" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B301" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+      <c r="B302" t="s">
+        <v>204</v>
+      </c>
+      <c r="C302" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B302" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+      <c r="B303" t="s">
+        <v>204</v>
+      </c>
+      <c r="C303" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B303" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+      <c r="B304" t="s">
+        <v>204</v>
+      </c>
+      <c r="C304" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B304" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="B305" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B306" t="s">
+        <v>205</v>
+      </c>
+      <c r="C306" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B306" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+      <c r="B307" t="s">
+        <v>203</v>
+      </c>
+      <c r="C307" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B307" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+      <c r="B308" t="s">
+        <v>203</v>
+      </c>
+      <c r="C308" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B308" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="B309" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B310" t="s">
+        <v>205</v>
+      </c>
+      <c r="C310" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B310" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+      <c r="B311" t="s">
+        <v>204</v>
+      </c>
+      <c r="C311" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B311" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="B312" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C312" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B313" t="s">
+        <v>205</v>
+      </c>
+      <c r="C313" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B313" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+      <c r="B314" t="s">
+        <v>204</v>
+      </c>
+      <c r="C314" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B314" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="B315" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C315" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B316" t="s">
+        <v>205</v>
+      </c>
+      <c r="C316" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B316" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+      <c r="B317" t="s">
+        <v>204</v>
+      </c>
+      <c r="C317" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B317" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="B318" t="s">
+        <v>205</v>
+      </c>
+      <c r="C318" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B318" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="B319" t="s">
+        <v>204</v>
+      </c>
+      <c r="C319" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B319" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="B320" t="s">
+        <v>204</v>
+      </c>
+      <c r="C320" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B320" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+      <c r="B321" t="s">
+        <v>205</v>
+      </c>
+      <c r="C321" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B321" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+      <c r="B322" t="s">
+        <v>204</v>
+      </c>
+      <c r="C322" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B322" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="B323" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B324" t="s">
+        <v>205</v>
+      </c>
+      <c r="C324" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B324" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+      <c r="B325" t="s">
+        <v>204</v>
+      </c>
+      <c r="C325" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B325" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="B326" t="s">
+        <v>204</v>
+      </c>
+      <c r="C326" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B326" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+      <c r="B327" t="s">
+        <v>205</v>
+      </c>
+      <c r="C327" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B327" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="B328" t="s">
+        <v>203</v>
+      </c>
+      <c r="C328" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B328" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="B329" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C329" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B330" t="s">
+        <v>205</v>
+      </c>
+      <c r="C330" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B330" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+      <c r="B331" t="s">
+        <v>203</v>
+      </c>
+      <c r="C331" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B331" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="B332" t="s">
+        <v>204</v>
+      </c>
+      <c r="C332" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B332" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+      <c r="B333" t="s">
+        <v>204</v>
+      </c>
+      <c r="C333" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B333" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+      <c r="B334" t="s">
+        <v>203</v>
+      </c>
+      <c r="C334" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B334" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+      <c r="B335" t="s">
+        <v>204</v>
+      </c>
+      <c r="C335" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B335" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+      <c r="B336" t="s">
+        <v>204</v>
+      </c>
+      <c r="C336" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B336" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+      <c r="B337" t="s">
+        <v>204</v>
+      </c>
+      <c r="C337" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B337" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+      <c r="B338" t="s">
+        <v>205</v>
+      </c>
+      <c r="C338" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B338" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+      <c r="B339" t="s">
+        <v>203</v>
+      </c>
+      <c r="C339" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B339" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+      <c r="B340" t="s">
+        <v>205</v>
+      </c>
+      <c r="C340" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B340" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+      <c r="B341" t="s">
+        <v>204</v>
+      </c>
+      <c r="C341" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B341" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+      <c r="B342" t="s">
+        <v>204</v>
+      </c>
+      <c r="C342" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B342" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+      <c r="B343" t="s">
+        <v>204</v>
+      </c>
+      <c r="C343" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B343" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+      <c r="B344" t="s">
+        <v>204</v>
+      </c>
+      <c r="C344" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B344" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+      <c r="B345" t="s">
+        <v>204</v>
+      </c>
+      <c r="C345" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B345" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+      <c r="B346" t="s">
+        <v>205</v>
+      </c>
+      <c r="C346" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B346" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
+      <c r="B347" t="s">
+        <v>203</v>
+      </c>
+      <c r="C347" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B347" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="B348" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C348" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B349" t="s">
+        <v>205</v>
+      </c>
+      <c r="C349" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B349" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+      <c r="B350" t="s">
+        <v>204</v>
+      </c>
+      <c r="C350" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B350" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
+      <c r="B351" t="s">
+        <v>204</v>
+      </c>
+      <c r="C351" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B351" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+      <c r="B352" t="s">
+        <v>204</v>
+      </c>
+      <c r="C352" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B352" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
+      <c r="B353" t="s">
+        <v>203</v>
+      </c>
+      <c r="C353" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B353" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="B354" t="s">
+        <v>205</v>
+      </c>
+      <c r="C354" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B354" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+      <c r="B355" t="s">
+        <v>203</v>
+      </c>
+      <c r="C355" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B355" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+      <c r="B356" t="s">
+        <v>203</v>
+      </c>
+      <c r="C356" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B356" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+      <c r="B357" t="s">
+        <v>203</v>
+      </c>
+      <c r="C357" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B357" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+      <c r="B358" t="s">
+        <v>203</v>
+      </c>
+      <c r="C358" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B358" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
+      <c r="B359" t="s">
+        <v>203</v>
+      </c>
+      <c r="C359" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B359" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+      <c r="B360" t="s">
+        <v>203</v>
+      </c>
+      <c r="C360" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B360" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
+      <c r="B361" t="s">
+        <v>203</v>
+      </c>
+      <c r="C361" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B361" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+      <c r="B362" t="s">
+        <v>203</v>
+      </c>
+      <c r="C362" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B362" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+      <c r="B363" t="s">
+        <v>205</v>
+      </c>
+      <c r="C363" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B363" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+      <c r="B364" t="s">
+        <v>203</v>
+      </c>
+      <c r="C364" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B364" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
+      <c r="B365" t="s">
+        <v>205</v>
+      </c>
+      <c r="C365" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B365" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+      <c r="B366" t="s">
+        <v>204</v>
+      </c>
+      <c r="C366" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B366" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+      <c r="B367" t="s">
+        <v>205</v>
+      </c>
+      <c r="C367" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B367" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+      <c r="B368" t="s">
+        <v>203</v>
+      </c>
+      <c r="C368" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B368" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+      <c r="B369" t="s">
+        <v>205</v>
+      </c>
+      <c r="C369" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B369" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="B370" t="s">
+        <v>203</v>
+      </c>
+      <c r="C370" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B370" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+      <c r="B371" t="s">
+        <v>203</v>
+      </c>
+      <c r="C371" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B371" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="B372" t="s">
+        <v>203</v>
+      </c>
+      <c r="C372" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B372" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+      <c r="B373" t="s">
+        <v>203</v>
+      </c>
+      <c r="C373" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B373" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="B374" t="s">
+        <v>205</v>
+      </c>
+      <c r="C374" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B374" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+      <c r="B375" t="s">
+        <v>203</v>
+      </c>
+      <c r="C375" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B375" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="B376" t="s">
+        <v>203</v>
+      </c>
+      <c r="C376" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B376" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+      <c r="B377" t="s">
+        <v>205</v>
+      </c>
+      <c r="C377" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B377" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="B378" t="s">
+        <v>203</v>
+      </c>
+      <c r="C378" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B378" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+      <c r="B379" t="s">
+        <v>205</v>
+      </c>
+      <c r="C379" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B379" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="B380" t="s">
         <v>204</v>
+      </c>
+      <c r="C380" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
